--- a/biology/Botanique/Pancovia_polyantha/Pancovia_polyantha.xlsx
+++ b/biology/Botanique/Pancovia_polyantha/Pancovia_polyantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pancovia polyantha Gilg ex Engl. est une espèce de plantes du genre Pancovia, de la famille des Sapindaceae[2]. Plante à fleur, elle appartient au groupe des dicotylédones[3].
-C’est un arbuste, qu’on retrouve dans le même habitat écologique que Pancovia subcuneata[4]. 
-L'espèce n'est connue qu'à travers un seul spécimen[4], collecté en 1897 par Alois Staudt à la station scientifique de Johann Albrechtshöhe (auj. Kumba) et conservé par le musée botanique de Berlin[5]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pancovia polyantha Gilg ex Engl. est une espèce de plantes du genre Pancovia, de la famille des Sapindaceae. Plante à fleur, elle appartient au groupe des dicotylédones.
+C’est un arbuste, qu’on retrouve dans le même habitat écologique que Pancovia subcuneata. 
+L'espèce n'est connue qu'à travers un seul spécimen, collecté en 1897 par Alois Staudt à la station scientifique de Johann Albrechtshöhe (auj. Kumba) et conservé par le musée botanique de Berlin. 
 </t>
         </is>
       </c>
